--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value48.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value48.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6345492480122967</v>
+        <v>1.315056920051575</v>
       </c>
       <c r="B1">
-        <v>1.034153854165581</v>
+        <v>1.920963644981384</v>
       </c>
       <c r="C1">
-        <v>2.589497997821628</v>
+        <v>2.842329740524292</v>
       </c>
       <c r="D1">
-        <v>3.436138058601911</v>
+        <v>5.348701953887939</v>
       </c>
       <c r="E1">
-        <v>1.699853046940507</v>
+        <v>2.976485013961792</v>
       </c>
     </row>
   </sheetData>
